--- a/tldemo/doc/采购订单.xlsx
+++ b/tldemo/doc/采购订单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>单据日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,22 @@
   </si>
   <si>
     <t>黄臣晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山进价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用证单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总进价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +148,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -158,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +193,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -470,31 +496,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="5.75" customWidth="1"/>
     <col min="14" max="14" width="6.625" customWidth="1"/>
     <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
+    <row r="1" spans="1:19" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +569,20 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>42964</v>
       </c>
@@ -587,8 +628,20 @@
       <c r="O2" s="3">
         <v>4.1399999999999997</v>
       </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>42964</v>
       </c>
@@ -634,8 +687,20 @@
       <c r="O3" s="3">
         <v>4.1399999999999997</v>
       </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>42965</v>
       </c>
@@ -681,8 +746,20 @@
       <c r="O4" s="3">
         <v>4.1399999999999997</v>
       </c>
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>42965</v>
       </c>
@@ -727,10 +804,23 @@
       </c>
       <c r="O5" s="3">
         <v>4.1399999999999997</v>
+      </c>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tldemo/doc/采购订单.xlsx
+++ b/tldemo/doc/采购订单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>单据日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,57 @@
     <t>等级</t>
   </si>
   <si>
+    <t>方数</t>
+  </si>
+  <si>
+    <t>吨数</t>
+  </si>
+  <si>
+    <t>实重</t>
+  </si>
+  <si>
+    <t>洞石</t>
+  </si>
+  <si>
+    <t>C KALiTE</t>
+  </si>
+  <si>
+    <t>DL130415-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL130415-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL130415-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL130415-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲坂供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄臣晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,15 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方数</t>
-  </si>
-  <si>
-    <t>吨数</t>
-  </si>
-  <si>
-    <t>实重</t>
-  </si>
-  <si>
     <t>单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,52 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洞石</t>
-  </si>
-  <si>
-    <t>C KALiTE</t>
-  </si>
-  <si>
-    <t>DL130415-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL130415-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL130415-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL130415-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲坂供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄臣晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿山进价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信用证单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,18 @@
   </si>
   <si>
     <t>费用单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初成本单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒料初成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿山单价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,16 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -183,17 +182,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -520,302 +518,334 @@
     <col min="14" max="14" width="6.625" customWidth="1"/>
     <col min="15" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5" customWidth="1"/>
+    <col min="20" max="21" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="U1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4">
+    <row r="2" spans="1:21">
+      <c r="A2" s="2">
         <v>42964</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
         <v>180</v>
       </c>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1">
         <v>115</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>4.4504999999999999</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>2</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>1</v>
       </c>
+      <c r="T2" s="1">
+        <v>100</v>
+      </c>
+      <c r="U2" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4">
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
         <v>42964</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>180</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>115</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.4504999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>100</v>
+      </c>
+      <c r="U3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2">
+        <v>42965</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3">
-        <v>180</v>
-      </c>
-      <c r="I3" s="3">
-        <v>100</v>
-      </c>
-      <c r="J3" s="3">
-        <v>115</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L3" s="3">
-        <v>4.4504999999999999</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N3" s="3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>42965</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>180</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>115</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.4504999999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>100</v>
+      </c>
+      <c r="U4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
+        <v>42965</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3">
-        <v>180</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100</v>
-      </c>
-      <c r="J4" s="3">
-        <v>115</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L4" s="3">
-        <v>4.4504999999999999</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2</v>
-      </c>
-      <c r="R4" s="3">
-        <v>2</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
-        <v>42965</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
         <v>180</v>
       </c>
-      <c r="I5" s="3">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" s="1">
         <v>115</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>4.4504999999999999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <v>3</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>100</v>
+      </c>
+      <c r="U5" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
